--- a/Chapter_04/Chapter_4_Table_S4.10.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0F5AB0-418A-481D-9D9F-B3D7BD33E7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EFD581-13B6-4B54-9382-89F35E126224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{1A2BD531-953B-4480-8106-40320C8314EE}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{29674168-3462-4D62-BC65-F0C782653E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.10" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>C007</t>
   </si>
   <si>
-    <t>O'Grady et al., (2025)</t>
+    <t>OGR25-BTB</t>
   </si>
   <si>
     <t>Control</t>
@@ -224,7 +224,7 @@
     <t>A017_CON</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2014)</t>
+    <t>MCL14-BTB</t>
   </si>
   <si>
     <t>A018_CON</t>
@@ -242,7 +242,7 @@
     <t>846_Control_W0</t>
   </si>
   <si>
-    <t>Wiarda et al., (2020)</t>
+    <t>WIA20-BTB</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -266,7 +266,7 @@
     <t>A6635_W-1</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2021)</t>
+    <t>MCL21-BTB</t>
   </si>
   <si>
     <t>A6636_W-1</t>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,11 +359,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -394,9 +389,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,21 +589,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F7BFD3B-9D70-4E63-8E52-7C84C49E160D}" name="Table10" displayName="Table10" ref="A2:L70" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F588E161-A16D-4638-A284-3313CAF244D8}" name="Table10" displayName="Table10" ref="A2:L70" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A2:L70" xr:uid="{C1B8AE6F-BD1A-4094-B6FC-BE0C558F9A72}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2574060A-8913-4F48-93E0-9847937F4029}" name="Sample" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7D33D0A9-5A25-4DD0-81FB-D9CF3848CFB2}" name="ENET" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4625C242-1EDE-4F71-903A-1D48FA313BD3}" name="LASSO" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{91D1AA8C-71CC-4C86-8E91-40678B22A95C}" name="MLP" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7043C67C-282C-485C-AEA6-98F0D86597FB}" name="RF(ET)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{030C001F-B6C8-4134-9302-84EEFCBA9DB2}" name="RF" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F2E3C4E0-DA22-4FFA-A330-A4A2EEDFD2D2}" name="RIDGE" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{CCBD87B9-1AC5-4D2E-AF94-97D4A35714F8}" name="NB" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{A222D7BB-BD16-4DAC-81F3-6A7387090C5D}" name="GLM" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{3C43E913-B810-404A-96E1-1688CCA0E3E2}" name="Study"/>
-    <tableColumn id="11" xr3:uid="{2D6D28D8-350A-48F1-B63D-3D29AA45E96D}" name="Condition"/>
-    <tableColumn id="12" xr3:uid="{A330FB15-8B5F-42CC-8D50-BD4795747B4A}" name="Infection acquisition"/>
+    <tableColumn id="1" xr3:uid="{33B31821-F0F4-4934-BB1C-D2824855E3D1}" name="Sample" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{7840FEB2-18BE-4D0D-A821-A33AE57CFEC7}" name="ENET" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BE56848F-6555-408D-A492-B80C86A630FA}" name="LASSO" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3710A371-C3CB-4D7B-9E2F-F54255DED61D}" name="MLP" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3CBEF14F-47A9-4126-89DA-78366111ED4D}" name="RF(ET)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9B84DFC0-777C-4B59-8E8E-66DAFA00F7E1}" name="RF" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D0C345E4-D4B2-44A5-A0FE-1F1E0325EEB7}" name="RIDGE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4F6EADCD-7EE6-49A5-92A1-6A6814E12755}" name="NB" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4071CB16-467B-4791-ADC4-C010866365BA}" name="GLM" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{397043A1-3CB2-4A28-9603-FADF7F373822}" name="Study"/>
+    <tableColumn id="11" xr3:uid="{524B2625-F7ED-4765-9BAA-F1291AA8DB50}" name="Condition"/>
+    <tableColumn id="12" xr3:uid="{B5283ABA-46E2-4900-AED1-6604ECBCF59E}" name="Infection acquisition"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25636C78-2E79-46B1-91EB-4661466A9949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1045258D-F110-4A54-8287-7A8ED84D5DFE}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
@@ -967,7 +959,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1005,32 +997,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -1043,32 +1035,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -1081,33 +1073,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -1119,32 +1111,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
@@ -1157,32 +1149,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
@@ -1195,32 +1187,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
@@ -1233,32 +1225,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
@@ -1271,32 +1263,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
@@ -1309,32 +1301,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
@@ -1347,33 +1339,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -1385,32 +1377,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
@@ -1423,32 +1415,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
@@ -1461,33 +1453,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1499,33 +1491,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1537,32 +1529,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
@@ -1575,32 +1567,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
@@ -1613,32 +1605,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
@@ -1651,32 +1643,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
@@ -1689,32 +1681,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
@@ -1727,32 +1719,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
@@ -1765,32 +1757,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
@@ -1803,32 +1795,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
@@ -1841,32 +1833,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
@@ -1879,32 +1871,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
@@ -1917,32 +1909,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
@@ -1955,33 +1947,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -1993,33 +1985,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -2031,32 +2023,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
@@ -2069,32 +2061,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
@@ -2107,32 +2099,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
@@ -2145,32 +2137,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -2183,32 +2175,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
@@ -2221,32 +2213,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
@@ -2259,32 +2251,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
@@ -2297,32 +2289,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
@@ -2335,32 +2327,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
@@ -2373,32 +2365,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="3">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
@@ -2411,32 +2403,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
@@ -2449,32 +2441,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
@@ -2487,32 +2479,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
@@ -2525,33 +2517,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>57</v>
@@ -2563,32 +2555,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
@@ -2601,32 +2593,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
@@ -2639,32 +2631,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
@@ -2677,32 +2669,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
@@ -2715,32 +2707,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
@@ -2753,32 +2745,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
@@ -2791,32 +2783,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="3">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
@@ -2829,32 +2821,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
@@ -2867,32 +2859,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
@@ -2905,33 +2897,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>71</v>
@@ -2943,33 +2935,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="3">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1</v>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>71</v>
@@ -2981,33 +2973,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>71</v>
@@ -3019,32 +3011,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
@@ -3057,32 +3049,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
@@ -3095,33 +3087,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>71</v>
@@ -3133,33 +3125,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>71</v>
@@ -3171,32 +3163,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
@@ -3209,33 +3201,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>71</v>
@@ -3247,32 +3239,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
@@ -3285,32 +3277,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
@@ -3323,32 +3315,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" s="3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
@@ -3361,32 +3353,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
@@ -3399,32 +3391,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="3">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
@@ -3437,32 +3429,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" s="3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
@@ -3475,32 +3467,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
@@ -3513,32 +3505,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
@@ -3551,32 +3543,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
